--- a/src/main/resources/test_data/Test_Data.xlsx
+++ b/src/main/resources/test_data/Test_Data.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15040"/>
+    <workbookView windowHeight="15640"/>
   </bookViews>
   <sheets>
     <sheet name="orders" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="products" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet4" sheetId="5" r:id="rId5"/>
@@ -18,10 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="82">
-  <si>
-    <t>run</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="88">
   <si>
     <t>product_name</t>
   </si>
@@ -53,9 +50,6 @@
     <t>expr_date</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
     <t>MyMoney</t>
   </si>
   <si>
@@ -83,6 +77,9 @@
     <t>4673496546456545</t>
   </si>
   <si>
+    <t>12/24</t>
+  </si>
+  <si>
     <t>FamilyAlbum</t>
   </si>
   <si>
@@ -110,7 +107,7 @@
     <t>976757567567556</t>
   </si>
   <si>
-    <t>no</t>
+    <t>12/25</t>
   </si>
   <si>
     <t>ScreenSaver</t>
@@ -140,6 +137,9 @@
     <t>8585959656575756</t>
   </si>
   <si>
+    <t>12/26</t>
+  </si>
+  <si>
     <t>8</t>
   </si>
   <si>
@@ -161,6 +161,9 @@
     <t>2353467457568678</t>
   </si>
   <si>
+    <t>12/27</t>
+  </si>
+  <si>
     <t>11</t>
   </si>
   <si>
@@ -182,6 +185,9 @@
     <t>56745685644645656</t>
   </si>
   <si>
+    <t>12/28</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
@@ -203,6 +209,9 @@
     <t>456456473545467</t>
   </si>
   <si>
+    <t>12/29</t>
+  </si>
+  <si>
     <t>12</t>
   </si>
   <si>
@@ -224,6 +233,9 @@
     <t>8765746546354645</t>
   </si>
   <si>
+    <t>12/30</t>
+  </si>
+  <si>
     <t>17</t>
   </si>
   <si>
@@ -245,6 +257,9 @@
     <t>5634576585678678</t>
   </si>
   <si>
+    <t>12/31</t>
+  </si>
+  <si>
     <t>21</t>
   </si>
   <si>
@@ -264,6 +279,9 @@
   </si>
   <si>
     <t>6733453464575675</t>
+  </si>
+  <si>
+    <t>12/32</t>
   </si>
 </sst>
 </file>
@@ -271,11 +289,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="mm/yy"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -283,6 +301,90 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -301,59 +403,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -362,6 +411,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -369,66 +447,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -439,19 +457,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,163 +637,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -630,36 +648,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -680,11 +668,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -693,7 +679,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -715,6 +716,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -722,11 +734,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -735,148 +753,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -894,6 +912,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1215,24 +1236,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="233" zoomScaleNormal="233" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScale="270" zoomScaleNormal="270" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="13.25" customWidth="1"/>
-    <col min="4" max="4" width="14.5625" customWidth="1"/>
-    <col min="5" max="5" width="14.1875" customWidth="1"/>
-    <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="9" max="9" width="13.875" customWidth="1"/>
-    <col min="10" max="10" width="18.3125" customWidth="1"/>
-    <col min="11" max="11" width="15.8125" customWidth="1"/>
+    <col min="1" max="1" width="13.25" customWidth="1"/>
+    <col min="3" max="3" width="14.5625" customWidth="1"/>
+    <col min="4" max="4" width="14.1875" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="8" max="8" width="13.875" customWidth="1"/>
+    <col min="9" max="9" width="18.3125" customWidth="1"/>
+    <col min="10" max="10" width="15.8125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1263,53 +1284,47 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
+      <c r="B2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="4" t="s">
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="2">
-        <v>45652</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" t="s">
         <v>22</v>
       </c>
       <c r="D3" t="s">
@@ -1321,30 +1336,27 @@
       <c r="F3" t="s">
         <v>25</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" t="s">
         <v>27</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="2">
-        <v>45653</v>
-      </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>30</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" t="s">
         <v>32</v>
       </c>
       <c r="D4" t="s">
@@ -1356,230 +1368,209 @@
       <c r="F4" t="s">
         <v>35</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" t="s">
         <v>37</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="K4" s="2">
-        <v>45654</v>
-      </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>40</v>
       </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="I5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="4" t="s">
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="K5" s="2">
-        <v>45655</v>
+      <c r="J5" s="5" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>47</v>
+        <v>20</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" t="s">
+        <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6" t="s">
-        <v>51</v>
-      </c>
-      <c r="H6" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="I6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="K6" s="2">
-        <v>45656</v>
+      <c r="H6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>30</v>
       </c>
-      <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>54</v>
+      <c r="B7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" t="s">
+        <v>57</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="I7" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="K7" s="2">
-        <v>45657</v>
+      <c r="G7" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>61</v>
+        <v>10</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" t="s">
+        <v>65</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E8" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F8" t="s">
-        <v>64</v>
-      </c>
-      <c r="G8" t="s">
-        <v>65</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="I8" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="K8" s="2">
-        <v>45658</v>
+        <v>68</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>68</v>
+        <v>20</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" t="s">
+        <v>73</v>
       </c>
       <c r="D9" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E9" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F9" t="s">
-        <v>71</v>
-      </c>
-      <c r="G9" t="s">
-        <v>72</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="I9" t="s">
-        <v>28</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="K9" s="2">
-        <v>45659</v>
+        <v>76</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>30</v>
       </c>
-      <c r="B10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>75</v>
+      <c r="B10" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" t="s">
+        <v>81</v>
       </c>
       <c r="D10" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E10" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="F10" t="s">
-        <v>78</v>
-      </c>
-      <c r="G10" t="s">
-        <v>79</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I10" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="K10" s="2">
-        <v>45660</v>
+        <v>84</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1593,7 +1584,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="223" zoomScaleNormal="223" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
